--- a/catalog/app/utils/spreadsheets/mocks/hobbits.xlsx
+++ b/catalog/app/utils/spreadsheets/mocks/hobbits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">Parts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
   </si>
   <si>
     <t xml:space="preserve">Fingers</t>
@@ -80,13 +77,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -152,7 +147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -166,14 +161,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -194,10 +181,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -206,8 +193,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -229,25 +215,22 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>33138</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>10</v>
@@ -255,13 +238,10 @@
       <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>53</v>
@@ -270,32 +250,29 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>25103</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>8374</v>
@@ -304,40 +281,30 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>61363</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>30676</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="4"/>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
